--- a/CardFrameDesign/配表草案/效果配表.xlsx
+++ b/CardFrameDesign/配表草案/效果配表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\策划案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\card\CardFrameDesign\配表草案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CFBAB-E752-4F52-A5F0-D54ED702537E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1733D111-D828-4044-B183-0EECF7A31E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="104">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>｛"副类型"："=法术","费用"：≤2｝||｛"副类型"："=书籍","费用"：≤2｝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>｛"横置"："=0"｝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,10 +333,6 @@
   </si>
   <si>
     <t>选择发动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找{0}张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,6 +422,41 @@
   </si>
   <si>
     <t>｛"所在地区"："=亚伯拉罕湖","被封印"："=1"｝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>｛"副类型"："=法术","费用"：≤2｝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>｛"副类型"："=书籍","费用"：≤2｝</t>
+  </si>
+  <si>
+    <t>效果计数，最大为{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数≥1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将检索结果加入手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中检索卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择{0}张卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将目标加入手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -893,13 +920,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>32</v>
@@ -1109,7 +1136,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11">
         <v>1100403</v>
@@ -1138,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1149,7 +1176,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1161,7 +1188,10 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>95</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1100702</v>
@@ -1171,83 +1201,95 @@
       <c r="A14">
         <v>1100702</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1100703</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1101001</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
+        <v>1100703</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1100704</v>
+      </c>
+      <c r="M15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1101002</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
+        <v>1100704</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1100705</v>
+      </c>
+      <c r="M16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1101003</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
+        <v>1100705</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1101004</v>
+        <v>1100706</v>
       </c>
       <c r="M17" t="s">
         <v>37</v>
@@ -1255,30 +1297,27 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1101004</v>
+        <v>1100706</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1101101</v>
+        <v>1101001</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -1298,13 +1337,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1101102</v>
+        <v>1101002</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1318,160 +1357,145 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1101103</v>
+        <v>1101003</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1101004</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1100601</v>
+        <v>1101004</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1100801</v>
+        <v>1101101</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23">
-        <v>1100802</v>
-      </c>
-      <c r="M23" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1100802</v>
+        <v>1101102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1200401</v>
+        <v>1101103</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>62</v>
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1100901</v>
+        <v>1100601</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>6</v>
-      </c>
-      <c r="L26">
-        <v>1100902</v>
-      </c>
-      <c r="M26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1100902</v>
+        <v>1100801</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1482,8 +1506,14 @@
       <c r="F27">
         <v>1</v>
       </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="L27">
-        <v>1100903</v>
+        <v>1100802</v>
       </c>
       <c r="M27" t="s">
         <v>37</v>
@@ -1491,75 +1521,71 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1100903</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
+        <v>1100802</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>9100101</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>1200401</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>9100102</v>
-      </c>
-      <c r="M29" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9100102</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>1100901</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <v>9100103</v>
+        <v>1100902</v>
       </c>
       <c r="M30" t="s">
         <v>37</v>
@@ -1567,56 +1593,59 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>9100103</v>
+        <v>1100902</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1100903</v>
+      </c>
+      <c r="M31" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>9100104</v>
+        <v>1100903</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="H32">
         <v>1</v>
-      </c>
-      <c r="L32">
-        <v>9100105</v>
-      </c>
-      <c r="M32" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>9100105</v>
+        <v>9100101</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -1631,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>9100106</v>
+        <v>9100102</v>
       </c>
       <c r="M33" t="s">
         <v>37</v>
@@ -1642,59 +1671,60 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>9100106</v>
-      </c>
+        <v>9100102</v>
+      </c>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>9100103</v>
+      </c>
+      <c r="M34" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>8010101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
+        <v>9100103</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>8010102</v>
-      </c>
-      <c r="M35" t="s">
-        <v>75</v>
+      <c r="H35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>8010102</v>
+        <v>9100104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1706,58 +1736,76 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>8010103</v>
+        <v>9100105</v>
+      </c>
+      <c r="M36" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>8010103</v>
+        <v>9100105</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>4</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
       <c r="L37">
-        <v>8010104</v>
+        <v>9100106</v>
+      </c>
+      <c r="M37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8010104</v>
+        <v>9100106</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38">
+        <v>9100107</v>
+      </c>
+      <c r="M38" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8010801</v>
+        <v>9100107</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1765,19 +1813,25 @@
       <c r="F39">
         <v>0</v>
       </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
       <c r="L39">
-        <v>8010802</v>
+        <v>9100108</v>
       </c>
       <c r="M39" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8010802</v>
+        <v>9100108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1787,72 +1841,69 @@
       </c>
       <c r="F40">
         <v>0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>80</v>
-      </c>
-      <c r="M40" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>8010803</v>
+        <v>8010101</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>2</v>
+      <c r="L41">
+        <v>8010102</v>
+      </c>
+      <c r="M41" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8010804</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
+        <v>8010102</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>8010103</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8040301</v>
+        <v>8010103</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1864,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>8040302</v>
+        <v>8010104</v>
       </c>
       <c r="M43" t="s">
         <v>37</v>
@@ -1872,59 +1923,53 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8040302</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
+        <v>8010104</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
       <c r="L44">
-        <v>8040303</v>
-      </c>
-      <c r="M44" t="s">
-        <v>37</v>
+        <v>8010105</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>8040303</v>
+        <v>8010105</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>8040304</v>
+        <v>8010801</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1934,79 +1979,249 @@
       </c>
       <c r="F46">
         <v>0</v>
+      </c>
+      <c r="L46">
+        <v>8010802</v>
+      </c>
+      <c r="M46" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>8040401</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
+        <v>8010802</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>78</v>
+      </c>
+      <c r="M47" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
+        <v>8010803</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>8010804</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8040301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>8040302</v>
+      </c>
+      <c r="M50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8040302</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>8040303</v>
+      </c>
+      <c r="M51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>8040303</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>8040304</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>8040401</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>8040402</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>8040403</v>
+      </c>
+      <c r="M55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>8040403</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
         <v>93</v>
       </c>
-      <c r="C48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>8040403</v>
-      </c>
-      <c r="M48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>8040403</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
         <v>94</v>
       </c>
-      <c r="C49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="F49">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="4"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F60" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
